--- a/biology/Botanique/Santana_(pomme)/Santana_(pomme).xlsx
+++ b/biology/Botanique/Santana_(pomme)/Santana_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Santana est un cultivar de pommier domestique (Malus Pumila Santana). La Santana est une pomme à pelure rouge, croquante et acidulée.
 </t>
@@ -511,7 +523,9 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Santana est une variété enregistrée par l'Union Européenne:
 numéro de référence: 3725
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wageningue aux Pays-Bas (1978).
 </t>
@@ -574,7 +590,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elstar x Priscilla
 </t>
@@ -605,10 +623,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonne pomme à croquer avec la pelure.
-Elle est hypoallergénique[1].
+Elle est hypoallergénique.
 </t>
         </is>
       </c>
@@ -637,10 +657,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La Santana est très appropriée aux petits jardins familiaux car elle ne nécessite pas ou très peu de traitements fongiques; la forme fuseau peut se planter à seulement un bon mètre de distance.
-Porte-greffe : Dans les petits jardins familiaux on utilisait généralement un porte-greffe nanifiant de type M9; aujourd'hui pour une meilleure productivité et une résistance au feu bactérien, on utilise le G.41[2] .
+Porte-greffe : Dans les petits jardins familiaux on utilisait généralement un porte-greffe nanifiant de type M9; aujourd'hui pour une meilleure productivité et une résistance au feu bactérien, on utilise le G.41 .
 Maladies : Résistance génétique (Vf) aux races communes de tavelure.
 Groupe de floraison C (longue B-C-D)
 Pollinisateurs : Red Windsor, Red Topaz, Topaz, etc.
